--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="139">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,52 +43,49 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>crap</t>
   </si>
   <si>
-    <t>trash</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>disappointment</t>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>unfortunately</t>
   </si>
   <si>
     <t>however</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>ripped</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>inches</t>
   </si>
   <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>loose</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
-    <t>unfortunately</t>
-  </si>
-  <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>loose</t>
-  </si>
-  <si>
-    <t>waste</t>
+    <t>water</t>
   </si>
   <si>
     <t>junk</t>
@@ -97,226 +94,241 @@
     <t>smaller</t>
   </si>
   <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
     <t>guess</t>
   </si>
   <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
     <t>pool</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>missing</t>
+    <t>low</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>otherwise</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>might</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>plastic</t>
+    <t>short</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>maybe</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>di</t>
+    <t>fl</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>tried</t>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>bad</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>less</t>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>actually</t>
   </si>
   <si>
     <t>half</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
     <t>bit</t>
   </si>
   <si>
+    <t>looked</t>
+  </si>
+  <si>
     <t>return</t>
   </si>
   <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>looked</t>
-  </si>
-  <si>
-    <t>actually</t>
+    <t>parts</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>minutes</t>
   </si>
   <si>
     <t>sound</t>
   </si>
   <si>
-    <t>rec</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>away</t>
+    <t>hard</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>seems</t>
-  </si>
-  <si>
-    <t>hard</t>
+    <t>money</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>back</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>item</t>
+    <t>worked</t>
   </si>
   <si>
     <t>look</t>
   </si>
   <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>used</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>picture</t>
   </si>
   <si>
     <t>need</t>
   </si>
   <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>back</t>
+    <t>price</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>used</t>
+    <t>2</t>
   </si>
   <si>
     <t>box</t>
   </si>
   <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
     <t>pieces</t>
   </si>
   <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
     <t>way</t>
   </si>
   <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>looks</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>enough</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>little</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>little</t>
+    <t>first</t>
   </si>
   <si>
     <t>made</t>
@@ -325,24 +337,18 @@
     <t>much</t>
   </si>
   <si>
-    <t>even</t>
+    <t>one</t>
+  </si>
+  <si>
+    <t>toy</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
   <si>
     <t>get</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>bought</t>
   </si>
   <si>
@@ -355,18 +361,21 @@
     <t>awesome</t>
   </si>
   <si>
+    <t>enjoyable</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
     <t>favorite</t>
   </si>
   <si>
+    <t>classic</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>classic</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
@@ -379,43 +388,43 @@
     <t>loves</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>christmas</t>
   </si>
   <si>
     <t>fun</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>christmas</t>
+    <t>game</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>game</t>
+    <t>playing</t>
   </si>
   <si>
     <t>easy</t>
-  </si>
-  <si>
-    <t>playing</t>
   </si>
   <si>
     <t>play</t>
@@ -779,7 +788,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q104"/>
+  <dimension ref="A1:Q106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -787,10 +796,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -848,13 +857,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -866,19 +875,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K3">
-        <v>0.8214285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -890,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -898,13 +907,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8571428571428571</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -916,19 +925,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K4">
-        <v>0.7846153846153846</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="L4">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M4">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -940,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -948,13 +957,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8421052631578947</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -966,19 +975,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K5">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="L5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -998,13 +1007,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8181818181818182</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C6">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1016,31 +1025,31 @@
         <v>0</v>
       </c>
       <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="L6">
+        <v>19</v>
+      </c>
+      <c r="M6">
+        <v>19</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>8</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K6">
-        <v>0.7634408602150538</v>
-      </c>
-      <c r="L6">
-        <v>71</v>
-      </c>
-      <c r="M6">
-        <v>71</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1048,13 +1057,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8095238095238095</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1066,19 +1075,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K7">
-        <v>0.59375</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="L7">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="M7">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1090,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1098,13 +1107,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.796875</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1116,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K8">
         <v>0.5849056603773585</v>
@@ -1148,13 +1157,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7894736842105263</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1166,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K9">
-        <v>0.391304347826087</v>
+        <v>0.5</v>
       </c>
       <c r="L9">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M9">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1190,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1198,13 +1207,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7605633802816901</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C10">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1216,19 +1225,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K10">
-        <v>0.3688524590163935</v>
+        <v>0.4492753623188406</v>
       </c>
       <c r="L10">
-        <v>450</v>
+        <v>31</v>
       </c>
       <c r="M10">
-        <v>450</v>
+        <v>31</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1240,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>770</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1248,13 +1257,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7407407407407407</v>
+        <v>0.7330097087378641</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1266,19 +1275,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K11">
-        <v>0.3400286944045911</v>
+        <v>0.3721311475409836</v>
       </c>
       <c r="L11">
-        <v>237</v>
+        <v>454</v>
       </c>
       <c r="M11">
-        <v>237</v>
+        <v>454</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1290,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>460</v>
+        <v>766</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1298,13 +1307,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7365591397849462</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C12">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1316,19 +1325,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K12">
-        <v>0.2925311203319502</v>
+        <v>0.3405172413793103</v>
       </c>
       <c r="L12">
-        <v>141</v>
+        <v>237</v>
       </c>
       <c r="M12">
-        <v>141</v>
+        <v>238</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1337,10 +1346,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>341</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1348,13 +1357,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7281553398058253</v>
+        <v>0.703125</v>
       </c>
       <c r="C13">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="D13">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1366,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K13">
-        <v>0.2916666666666667</v>
+        <v>0.3029045643153527</v>
       </c>
       <c r="L13">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="M13">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1390,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>85</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1398,13 +1407,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7272727272727273</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1416,19 +1425,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K14">
-        <v>0.2409638554216867</v>
+        <v>0.2324159021406728</v>
       </c>
       <c r="L14">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="M14">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1440,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>126</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1448,13 +1457,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.72</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="D15">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1466,19 +1475,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K15">
-        <v>0.2110091743119266</v>
+        <v>0.2228915662650602</v>
       </c>
       <c r="L15">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1490,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>258</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1498,7 +1507,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6818181818181818</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1516,19 +1525,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K16">
-        <v>0.2063492063492063</v>
+        <v>0.2169312169312169</v>
       </c>
       <c r="L16">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M16">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1540,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1548,13 +1557,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6551724137931034</v>
+        <v>0.64</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1566,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K17">
-        <v>0.1183172655565294</v>
+        <v>0.1916666666666667</v>
       </c>
       <c r="L17">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="M17">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1590,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1006</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1598,13 +1607,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6521739130434783</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1616,19 +1625,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K18">
-        <v>0.1182795698924731</v>
+        <v>0.15625</v>
       </c>
       <c r="L18">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M18">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1640,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>164</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1648,13 +1657,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6486486486486487</v>
+        <v>0.6</v>
       </c>
       <c r="C19">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="D19">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1666,19 +1675,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K19">
-        <v>0.1171875</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L19">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M19">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1690,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1698,13 +1707,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6181818181818182</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C20">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="D20">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1716,31 +1725,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K20">
-        <v>0.1118881118881119</v>
+        <v>0.1413043478260869</v>
       </c>
       <c r="L20">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M20">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>127</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1748,13 +1757,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5714285714285714</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C21">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="D21">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1766,19 +1775,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K21">
-        <v>0.1004016064257028</v>
+        <v>0.1164658634538153</v>
       </c>
       <c r="L21">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1790,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1798,13 +1807,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5555555555555556</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C22">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1816,19 +1825,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K22">
-        <v>0.06128133704735376</v>
+        <v>0.1095530236634531</v>
       </c>
       <c r="L22">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="M22">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1840,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>337</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1848,13 +1857,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5428571428571428</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D23">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1866,19 +1875,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K23">
-        <v>0.05714285714285714</v>
+        <v>0.05909090909090909</v>
       </c>
       <c r="L23">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M23">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="N23">
         <v>0.99</v>
@@ -1890,7 +1899,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>1452</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1898,13 +1907,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5238095238095238</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1916,31 +1925,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K24">
-        <v>0.05080213903743316</v>
+        <v>0.05307262569832402</v>
       </c>
       <c r="L24">
         <v>19</v>
       </c>
       <c r="M24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>355</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1948,49 +1957,49 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5142857142857142</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>18</v>
       </c>
-      <c r="D25">
-        <v>18</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
+      <c r="J25" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K25">
+        <v>0.04953560371517028</v>
+      </c>
+      <c r="L25">
+        <v>16</v>
+      </c>
+      <c r="M25">
         <v>17</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K25">
-        <v>0.04629629629629629</v>
-      </c>
-      <c r="L25">
-        <v>15</v>
-      </c>
-      <c r="M25">
-        <v>15</v>
-      </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1998,13 +2007,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4956521739130435</v>
+        <v>0.5159420289855072</v>
       </c>
       <c r="C26">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D26">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2016,31 +2025,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K26">
-        <v>0.02403204272363151</v>
+        <v>0.04289544235924933</v>
       </c>
       <c r="L26">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M26">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N26">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O26">
-        <v>0.14</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>731</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2048,13 +2057,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4888888888888889</v>
+        <v>0.5</v>
       </c>
       <c r="C27">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2066,7 +2075,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K27">
+        <v>0.03619302949061663</v>
+      </c>
+      <c r="L27">
+        <v>27</v>
+      </c>
+      <c r="M27">
+        <v>33</v>
+      </c>
+      <c r="N27">
+        <v>0.82</v>
+      </c>
+      <c r="O27">
+        <v>0.18</v>
+      </c>
+      <c r="P27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>719</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2074,13 +2107,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4814814814814815</v>
+        <v>0.5</v>
       </c>
       <c r="C28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2092,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2100,13 +2133,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4791666666666667</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="C29">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D29">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2118,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2126,13 +2159,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4761904761904762</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C30">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D30">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2144,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2152,13 +2185,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4631578947368421</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C31">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D31">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2170,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2178,13 +2211,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4473684210526316</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C32">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D32">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2196,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2204,13 +2237,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4444444444444444</v>
+        <v>0.4526315789473684</v>
       </c>
       <c r="C33">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D33">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2222,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2230,13 +2263,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4330708661417323</v>
+        <v>0.4251968503937008</v>
       </c>
       <c r="C34">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D34">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2248,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2256,13 +2289,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4265402843601896</v>
+        <v>0.4186046511627907</v>
       </c>
       <c r="C35">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="D35">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2274,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>121</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2282,13 +2315,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4096385542168675</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C36">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D36">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2300,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2308,13 +2341,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.40625</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="C37">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D37">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2326,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2334,13 +2367,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3861386138613861</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C38">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="D38">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2352,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>124</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2360,13 +2393,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3818181818181818</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="C39">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D39">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2378,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2386,13 +2419,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3770491803278688</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C40">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D40">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2404,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2412,13 +2445,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.375</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="C41">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D41">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2430,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>80</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2438,13 +2471,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3720930232558139</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C42">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D42">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2456,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2464,13 +2497,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3707865168539326</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="C43">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D43">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2482,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2490,13 +2523,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3673469387755102</v>
+        <v>0.375</v>
       </c>
       <c r="C44">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D44">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2508,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2516,13 +2549,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3541666666666667</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C45">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D45">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2534,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2542,13 +2575,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.35</v>
+        <v>0.3507109004739337</v>
       </c>
       <c r="C46">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="D46">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2560,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>39</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2568,13 +2601,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.3148148148148148</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="C47">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D47">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2586,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2594,13 +2627,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.3076923076923077</v>
+        <v>0.3415841584158416</v>
       </c>
       <c r="C48">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D48">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2612,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>81</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2620,13 +2653,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2985074626865671</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="C49">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D49">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2638,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2646,13 +2679,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2758620689655172</v>
+        <v>0.3247863247863248</v>
       </c>
       <c r="C50">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D50">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2664,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>42</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2672,13 +2705,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2755102040816326</v>
+        <v>0.3134328358208955</v>
       </c>
       <c r="C51">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D51">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2690,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>71</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2698,13 +2731,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2741935483870968</v>
+        <v>0.3125</v>
       </c>
       <c r="C52">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D52">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2716,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>45</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2724,13 +2757,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2698412698412698</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="C53">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D53">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2742,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2750,13 +2783,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2678571428571428</v>
+        <v>0.2938144329896907</v>
       </c>
       <c r="C54">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="D54">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2768,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>41</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2776,13 +2809,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.25</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C55">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D55">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2794,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2802,7 +2835,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2463768115942029</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="C56">
         <v>17</v>
@@ -2820,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2828,13 +2861,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2394366197183098</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C57">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D57">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2846,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2854,13 +2887,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2319587628865979</v>
+        <v>0.2755102040816326</v>
       </c>
       <c r="C58">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D58">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2872,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>149</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2880,13 +2913,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2297297297297297</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="C59">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D59">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2898,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2906,7 +2939,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2285714285714286</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="C60">
         <v>16</v>
@@ -2924,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2932,25 +2965,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.224368499257058</v>
+        <v>0.2463768115942029</v>
       </c>
       <c r="C61">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="D61">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="E61">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>522</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2958,13 +2991,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.2101910828025478</v>
+        <v>0.2417582417582418</v>
       </c>
       <c r="C62">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D62">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2976,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>124</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2984,13 +3017,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.2027027027027027</v>
+        <v>0.2356687898089172</v>
       </c>
       <c r="C63">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D63">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3002,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>59</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3010,13 +3043,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.2</v>
+        <v>0.2297297297297297</v>
       </c>
       <c r="C64">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D64">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3028,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>160</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3036,13 +3069,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1993670886075949</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="C65">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="D65">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3054,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>253</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3062,13 +3095,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1956521739130435</v>
+        <v>0.215</v>
       </c>
       <c r="C66">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D66">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3080,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>222</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3088,25 +3121,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1875</v>
+        <v>0.2080237741456167</v>
       </c>
       <c r="C67">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="D67">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>104</v>
+        <v>533</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3114,13 +3147,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1851851851851852</v>
+        <v>0.2025316455696203</v>
       </c>
       <c r="C68">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="D68">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3132,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>88</v>
+        <v>252</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3140,13 +3173,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1835443037974684</v>
+        <v>0.1992753623188406</v>
       </c>
       <c r="C69">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D69">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3158,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>258</v>
+        <v>221</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3166,13 +3199,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1779661016949153</v>
+        <v>0.1982378854625551</v>
       </c>
       <c r="C70">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="D70">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3184,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>97</v>
+        <v>364</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3192,25 +3225,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1692307692307692</v>
+        <v>0.1965811965811966</v>
       </c>
       <c r="C71">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D71">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3218,13 +3251,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1649484536082474</v>
+        <v>0.1928571428571429</v>
       </c>
       <c r="C72">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D72">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3236,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>81</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3244,13 +3277,13 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1649484536082474</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="C73">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D73">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3262,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>81</v>
+        <v>256</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3270,25 +3303,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1648351648351648</v>
+        <v>0.1869158878504673</v>
       </c>
       <c r="C74">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D74">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3296,7 +3329,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1642857142857143</v>
+        <v>0.1796875</v>
       </c>
       <c r="C75">
         <v>23</v>
@@ -3314,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3322,13 +3355,13 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1635514018691589</v>
+        <v>0.1657142857142857</v>
       </c>
       <c r="C76">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D76">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3340,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>179</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3348,25 +3381,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1613832853025937</v>
+        <v>0.1649484536082474</v>
       </c>
       <c r="C77">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D77">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E77">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>291</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3374,13 +3407,13 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1607929515418502</v>
+        <v>0.15625</v>
       </c>
       <c r="C78">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="D78">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3392,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>381</v>
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3400,13 +3433,13 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1542857142857143</v>
+        <v>0.154639175257732</v>
       </c>
       <c r="C79">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D79">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3418,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>148</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3426,13 +3459,13 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1465968586387434</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C80">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D80">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3444,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>163</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3452,25 +3485,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1420765027322404</v>
+        <v>0.1469740634005764</v>
       </c>
       <c r="C81">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D81">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81">
-        <v>157</v>
+        <v>296</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3478,25 +3511,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1345029239766082</v>
+        <v>0.145748987854251</v>
       </c>
       <c r="C82">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D82">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82">
-        <v>148</v>
+        <v>211</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3504,25 +3537,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.130718954248366</v>
+        <v>0.1448598130841121</v>
       </c>
       <c r="C83">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D83">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E83">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>133</v>
+        <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3530,25 +3563,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.1297709923664122</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C84">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D84">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>114</v>
+        <v>228</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3556,25 +3589,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1278195488721804</v>
+        <v>0.1361256544502618</v>
       </c>
       <c r="C85">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D85">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E85">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>232</v>
+        <v>165</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3582,13 +3615,13 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.126027397260274</v>
+        <v>0.1205479452054795</v>
       </c>
       <c r="C86">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D86">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -3600,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3608,25 +3641,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.125</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C87">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D87">
         <v>24</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3634,25 +3667,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.1129032258064516</v>
+        <v>0.1168831168831169</v>
       </c>
       <c r="C88">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D88">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E88">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>165</v>
+        <v>136</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3660,13 +3693,13 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1111111111111111</v>
+        <v>0.1147540983606557</v>
       </c>
       <c r="C89">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D89">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -3678,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>120</v>
+        <v>162</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3686,13 +3719,13 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1094890510948905</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="C90">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D90">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -3704,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>122</v>
+        <v>248</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3712,13 +3745,13 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1008064516129032</v>
+        <v>0.1118012422360248</v>
       </c>
       <c r="C91">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D91">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -3730,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>223</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3738,13 +3771,13 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.09859154929577464</v>
+        <v>0.1085714285714286</v>
       </c>
       <c r="C92">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D92">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -3756,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>320</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3764,13 +3797,13 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.09693877551020408</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C93">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D93">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -3782,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>177</v>
+        <v>153</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3790,13 +3823,13 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.09390444810543658</v>
+        <v>0.09598214285714286</v>
       </c>
       <c r="C94">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D94">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E94">
         <v>0.02</v>
@@ -3808,7 +3841,7 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <v>550</v>
+        <v>405</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3816,13 +3849,13 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.0779510022271715</v>
+        <v>0.0949367088607595</v>
       </c>
       <c r="C95">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D95">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -3834,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>414</v>
+        <v>143</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3842,25 +3875,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.07278481012658228</v>
+        <v>0.09248554913294797</v>
       </c>
       <c r="C96">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D96">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E96">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>293</v>
+        <v>157</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3868,25 +3901,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.07226107226107226</v>
+        <v>0.08745874587458746</v>
       </c>
       <c r="C97">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D97">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="E97">
-        <v>0.14</v>
+        <v>0.04</v>
       </c>
       <c r="F97">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>398</v>
+        <v>553</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3894,25 +3927,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.06451612903225806</v>
+        <v>0.08732394366197183</v>
       </c>
       <c r="C98">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D98">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E98">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>261</v>
+        <v>324</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3920,25 +3953,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.05607476635514019</v>
+        <v>0.08602150537634409</v>
       </c>
       <c r="C99">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D99">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E99">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>404</v>
+        <v>170</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3946,25 +3979,25 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.05196451204055767</v>
+        <v>0.07911392405063292</v>
       </c>
       <c r="C100">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D100">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E100">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="F100">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>748</v>
+        <v>291</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3972,25 +4005,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04063205417607223</v>
+        <v>0.06511627906976744</v>
       </c>
       <c r="C101">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D101">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E101">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="F101">
-        <v>0.8200000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>425</v>
+        <v>402</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3998,13 +4031,13 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.03862660944206009</v>
+        <v>0.05590851334180432</v>
       </c>
       <c r="C102">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D102">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E102">
         <v>0.14</v>
@@ -4016,7 +4049,7 @@
         <v>1</v>
       </c>
       <c r="H102">
-        <v>448</v>
+        <v>743</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4024,13 +4057,13 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.03686635944700461</v>
+        <v>0.04769230769230769</v>
       </c>
       <c r="C103">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D103">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E103">
         <v>0.14</v>
@@ -4042,7 +4075,7 @@
         <v>1</v>
       </c>
       <c r="H103">
-        <v>627</v>
+        <v>619</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4050,25 +4083,77 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.03187250996015936</v>
+        <v>0.04298642533936652</v>
       </c>
       <c r="C104">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D104">
+        <v>24</v>
+      </c>
+      <c r="E104">
+        <v>0.21</v>
+      </c>
+      <c r="F104">
+        <v>0.79</v>
+      </c>
+      <c r="G104" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105">
+        <v>0.04215456674473068</v>
+      </c>
+      <c r="C105">
         <v>18</v>
       </c>
-      <c r="E104">
-        <v>0.11</v>
-      </c>
-      <c r="F104">
-        <v>0.89</v>
-      </c>
-      <c r="G104" t="b">
-        <v>1</v>
-      </c>
-      <c r="H104">
-        <v>486</v>
+      <c r="D105">
+        <v>20</v>
+      </c>
+      <c r="E105">
+        <v>0.1</v>
+      </c>
+      <c r="F105">
+        <v>0.9</v>
+      </c>
+      <c r="G105" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106">
+        <v>0.0376984126984127</v>
+      </c>
+      <c r="C106">
+        <v>19</v>
+      </c>
+      <c r="D106">
+        <v>19</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106" t="b">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>485</v>
       </c>
     </row>
   </sheetData>
